--- a/translation/xlsx/_tsum_003_3.xlsx
+++ b/translation/xlsx/_tsum_003_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1376">
   <si>
     <t>actor</t>
   </si>
@@ -1251,16 +1251,19 @@
     <t>One of the other customers wanted to get a piece of the wonderful treatment, and patted Mion on the shoulder.</t>
   </si>
   <si>
+    <t xml:space="preserve">그 광경이 너무도 부러웠는지, 관객 중 한명이 자신에게도 서비스를 해달라며 미온의 어깨를 두드린다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">너무도 부러웠는지 자신들에게도 서비스를 해달라며 갤러리 중 1명이 미온의 어깨를 두드린다. </t>
+  </si>
+  <si>
+    <t>너무 부러움에 자신들도 부러워한다며 갤러리 중 한 명이 매음의 어깨를 두드린다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그 광경이 너무도 부러웠는지 자신들에게도 서비스를 해달라며 갤러리 중 1명이 미온의 어깨를 두드린다. </t>
+  </si>
+  <si>
     <t xml:space="preserve">그 광경이 너무도 부러웠는지, 관객 중 한명이 자신에게도 서비스를 해달라며 중 미온의 어깨를 두드린다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">너무도 부러웠는지 자신들에게도 서비스를 해달라며 갤러리 중 1명이 미온의 어깨를 두드린다. </t>
-  </si>
-  <si>
-    <t>너무 부러움에 자신들도 부러워한다며 갤러리 중 한 명이 매음의 어깨를 두드린다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그 광경이 너무도 부러웠는지 자신들에게도 서비스를 해달라며 갤러리 중 1명이 미온의 어깨를 두드린다. </t>
   </si>
   <si>
     <t>「あーー、悪いけどおじさん、ウェイトレスじゃないのよ。</t>
@@ -4160,6 +4163,7 @@
     <font/>
     <font>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4659,10 +4663,10 @@
         <v>41</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="O8" s="4" t="s">
@@ -6093,7 +6097,7 @@
         <v>305</v>
       </c>
       <c r="L65" s="5"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="4" t="s">
         <v>306</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -6416,10 +6420,10 @@
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>361</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -6641,11 +6645,11 @@
       <c r="C87" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="2" t="s">
         <v>411</v>
       </c>
       <c r="L87" s="5"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="4" t="s">
         <v>412</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -6655,7 +6659,7 @@
         <v>414</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -6663,50 +6667,50 @@
         <v>241</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O88" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="N88" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="P88" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O89" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="N89" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="P89" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -6714,74 +6718,74 @@
         <v>393</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N90" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="O90" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="O90" s="4" t="s">
-        <v>427</v>
-      </c>
       <c r="P90" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L91" s="5"/>
       <c r="M91" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N91" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="O91" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="O91" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="P91" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="B92" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L92" s="5"/>
       <c r="M92" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O92" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="N92" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O92" s="4" t="s">
-        <v>435</v>
-      </c>
       <c r="P92" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -6789,50 +6793,50 @@
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="P93" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="P93" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="B94" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="P94" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="P94" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -6840,101 +6844,101 @@
         <v>86</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="O95" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="N95" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="O95" s="4" t="s">
-        <v>451</v>
-      </c>
       <c r="P95" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="B96" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L96" s="5"/>
       <c r="M96" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="O96" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="N96" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="O96" s="4" t="s">
-        <v>456</v>
-      </c>
       <c r="P96" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L97" s="5"/>
       <c r="M97" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O97" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="N97" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="O97" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="P97" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="P98" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="O98" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="P98" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -6942,149 +6946,149 @@
         <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L99" s="5"/>
       <c r="M99" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N99" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O99" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="O99" s="4" t="s">
-        <v>473</v>
-      </c>
       <c r="P99" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="P100" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="O100" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L101" s="5"/>
       <c r="M101" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="O101" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="N101" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="O101" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="P101" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="B102" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="P102" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="P102" s="4" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="B103" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L103" s="5"/>
       <c r="M103" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="P103" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="O103" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="P103" s="4" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="B104" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L104" s="5"/>
       <c r="M104" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N104" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="O104" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="O104" s="4" t="s">
-        <v>494</v>
-      </c>
       <c r="P104" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
@@ -7092,203 +7096,203 @@
         <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L105" s="5"/>
       <c r="M105" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="P105" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="O105" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="P105" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="B106" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L106" s="5"/>
       <c r="M106" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="P106" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="O106" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="P106" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L107" s="5"/>
       <c r="M107" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="O107" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="N107" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="O107" s="4" t="s">
-        <v>511</v>
-      </c>
       <c r="P107" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="B108" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L108" s="5"/>
       <c r="M108" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="O108" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="N108" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="O108" s="4" t="s">
-        <v>516</v>
-      </c>
       <c r="P108" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L109" s="5"/>
       <c r="M109" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="O109" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="N109" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="O109" s="4" t="s">
-        <v>522</v>
-      </c>
       <c r="P109" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="B110" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L110" s="5"/>
       <c r="M110" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="O110" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="N110" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="O110" s="4" t="s">
-        <v>527</v>
-      </c>
       <c r="P110" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L111" s="5"/>
       <c r="M111" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="P111" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="O111" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="P111" s="4" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="B112" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="O112" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="N112" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="O112" s="4" t="s">
-        <v>539</v>
-      </c>
       <c r="P112" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
@@ -7296,74 +7300,74 @@
         <v>241</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L113" s="5"/>
       <c r="M113" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="O113" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="N113" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="O113" s="4" t="s">
-        <v>544</v>
-      </c>
       <c r="P113" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="B114" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L114" s="5"/>
       <c r="M114" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="O114" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="N114" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="O114" s="4" t="s">
-        <v>549</v>
-      </c>
       <c r="P114" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="B115" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L115" s="5"/>
       <c r="M115" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N115" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="O115" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="O115" s="4" t="s">
-        <v>554</v>
-      </c>
       <c r="P115" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
@@ -7371,50 +7375,50 @@
         <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L116" s="5"/>
       <c r="M116" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="O116" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="N116" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="O116" s="4" t="s">
-        <v>558</v>
-      </c>
       <c r="P116" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="B117" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L117" s="5"/>
       <c r="M117" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="O117" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="N117" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="O117" s="4" t="s">
-        <v>563</v>
-      </c>
       <c r="P117" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -7422,53 +7426,53 @@
         <v>241</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L118" s="5"/>
       <c r="M118" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="O118" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="N118" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="O118" s="4" t="s">
-        <v>568</v>
-      </c>
       <c r="P118" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B119" t="s">
-        <v>571</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="1" t="s">
         <v>572</v>
       </c>
+      <c r="C119" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="D119" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N119" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="O119" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="O119" s="4" t="s">
-        <v>573</v>
-      </c>
       <c r="P119" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
@@ -7476,50 +7480,50 @@
         <v>92</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N120" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="O120" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="O120" s="4" t="s">
-        <v>577</v>
-      </c>
       <c r="P120" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="B121" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="O121" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="N121" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="O121" s="4" t="s">
-        <v>581</v>
-      </c>
       <c r="P121" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
@@ -7527,26 +7531,26 @@
         <v>241</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="O122" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="N122" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="O122" s="4" t="s">
-        <v>586</v>
-      </c>
       <c r="P122" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -7554,98 +7558,98 @@
         <v>241</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L123" s="5"/>
       <c r="M123" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="O123" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="N123" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="O123" s="4" t="s">
-        <v>591</v>
-      </c>
       <c r="P123" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="B124" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L124" s="5"/>
       <c r="M124" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="O124" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="N124" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="O124" s="4" t="s">
-        <v>596</v>
-      </c>
       <c r="P124" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="B125" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L125" s="5"/>
       <c r="M125" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O125" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="N125" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="O125" s="4" t="s">
-        <v>601</v>
-      </c>
       <c r="P125" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="B126" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N126" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="O126" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="O126" s="4" t="s">
-        <v>606</v>
-      </c>
       <c r="P126" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -7653,50 +7657,50 @@
         <v>79</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L127" s="3"/>
       <c r="M127" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="O127" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="N127" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="O127" s="6" t="s">
-        <v>610</v>
-      </c>
       <c r="P127" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="B128" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L128" s="3"/>
       <c r="M128" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="O128" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="N128" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="O128" s="6" t="s">
-        <v>615</v>
-      </c>
       <c r="P128" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
@@ -7704,26 +7708,26 @@
         <v>86</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L129" s="5"/>
       <c r="M129" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O129" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="N129" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="O129" s="4" t="s">
-        <v>620</v>
-      </c>
       <c r="P129" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
@@ -7731,50 +7735,50 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L130" s="5"/>
       <c r="M130" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="O130" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="N130" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="O130" s="4" t="s">
-        <v>625</v>
-      </c>
       <c r="P130" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L131" s="5"/>
       <c r="M131" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="O131" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N131" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="O131" s="4" t="s">
-        <v>630</v>
-      </c>
       <c r="P131" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
@@ -7782,74 +7786,74 @@
         <v>92</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L132" s="5"/>
       <c r="M132" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N132" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="O132" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="O132" s="4" t="s">
-        <v>635</v>
-      </c>
       <c r="P132" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="B133" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L133" s="5"/>
       <c r="M133" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N133" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="O133" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="O133" s="4" t="s">
-        <v>639</v>
-      </c>
       <c r="P133" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L134" s="5"/>
       <c r="M134" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="O134" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="N134" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="O134" s="4" t="s">
-        <v>643</v>
-      </c>
       <c r="P134" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
@@ -7857,98 +7861,98 @@
         <v>92</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L135" s="5"/>
       <c r="M135" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="O135" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="N135" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="O135" s="4" t="s">
-        <v>648</v>
-      </c>
       <c r="P135" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="B136" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L136" s="5"/>
       <c r="M136" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="O136" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="N136" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="O136" s="4" t="s">
-        <v>653</v>
-      </c>
       <c r="P136" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="B137" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L137" s="5"/>
       <c r="M137" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="O137" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="P137" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="O137" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="P137" s="4" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="B138" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L138" s="3"/>
       <c r="M138" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="O138" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="N138" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="O138" s="6" t="s">
-        <v>664</v>
-      </c>
       <c r="P138" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
@@ -7956,50 +7960,50 @@
         <v>8</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L139" s="5"/>
       <c r="M139" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N139" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="O139" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="O139" s="4" t="s">
-        <v>669</v>
-      </c>
       <c r="P139" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="B140" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L140" s="5"/>
       <c r="M140" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N140" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="O140" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="O140" s="4" t="s">
-        <v>673</v>
-      </c>
       <c r="P140" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -8007,26 +8011,26 @@
         <v>241</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L141" s="5"/>
       <c r="M141" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N141" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="O141" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="O141" s="4" t="s">
-        <v>677</v>
-      </c>
       <c r="P141" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
@@ -8034,74 +8038,74 @@
         <v>241</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L142" s="5"/>
       <c r="M142" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="O142" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="N142" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="O142" s="4" t="s">
-        <v>681</v>
-      </c>
       <c r="P142" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="B143" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L143" s="5"/>
       <c r="M143" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="O143" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="N143" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="O143" s="4" t="s">
-        <v>686</v>
-      </c>
       <c r="P143" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="B144" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L144" s="5"/>
       <c r="M144" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="O144" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="N144" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="O144" s="4" t="s">
-        <v>691</v>
-      </c>
       <c r="P144" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
@@ -8109,26 +8113,26 @@
         <v>13</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L145" s="5"/>
       <c r="M145" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="O145" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="N145" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="O145" s="4" t="s">
-        <v>696</v>
-      </c>
       <c r="P145" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
@@ -8136,50 +8140,50 @@
         <v>241</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L146" s="5"/>
       <c r="M146" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="O146" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="N146" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="O146" s="4" t="s">
-        <v>701</v>
-      </c>
       <c r="P146" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L147" s="5"/>
       <c r="M147" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N147" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="O147" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="O147" s="4" t="s">
-        <v>706</v>
-      </c>
       <c r="P147" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
@@ -8187,275 +8191,275 @@
         <v>79</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L148" s="5"/>
       <c r="M148" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="O148" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="N148" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="O148" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="P148" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="B149" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L149" s="3"/>
       <c r="M149" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="P149" s="6" t="s">
         <v>716</v>
-      </c>
-      <c r="N149" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="O149" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="P149" s="6" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L150" s="5"/>
       <c r="M150" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="O150" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="N150" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="O150" s="4" t="s">
-        <v>721</v>
-      </c>
       <c r="P150" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L151" s="5"/>
       <c r="M151" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="O151" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="N151" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="O151" s="4" t="s">
-        <v>726</v>
-      </c>
       <c r="P151" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="B152" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L152" s="5"/>
       <c r="M152" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N152" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="O152" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="O152" s="4" t="s">
-        <v>731</v>
-      </c>
       <c r="P152" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="B153" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L153" s="5"/>
       <c r="M153" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="O153" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="P153" s="4" t="s">
         <v>736</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="O153" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="P153" s="4" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="B154" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L154" s="5"/>
       <c r="M154" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="O154" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="P154" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="N154" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="O154" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="P154" s="4" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="B155" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L155" s="3"/>
       <c r="M155" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="O155" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="P155" s="8" t="s">
         <v>748</v>
-      </c>
-      <c r="N155" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="O155" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="P155" s="8" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L156" s="5"/>
       <c r="M156" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N156" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="O156" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="O156" s="4" t="s">
-        <v>753</v>
-      </c>
       <c r="P156" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="B157" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L157" s="5"/>
       <c r="M157" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="O157" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="P157" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="N157" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="O157" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="P157" s="4" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="B158" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="L158" s="5"/>
       <c r="M158" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N158" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="O158" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="O158" s="4" t="s">
-        <v>762</v>
-      </c>
       <c r="P158" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
@@ -8463,74 +8467,74 @@
         <v>13</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L159" s="5"/>
       <c r="M159" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="O159" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="N159" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="O159" s="4" t="s">
-        <v>766</v>
-      </c>
       <c r="P159" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="B160" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L160" s="3"/>
       <c r="M160" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="O160" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="P160" s="6" t="s">
         <v>772</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="O160" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="P160" s="6" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="B161" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L161" s="3"/>
       <c r="M161" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="O161" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="P161" s="8" t="s">
         <v>778</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="O161" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="P161" s="8" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
@@ -8538,26 +8542,26 @@
         <v>8</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L162" s="5"/>
       <c r="M162" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="O162" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="P162" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="N162" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="O162" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="P162" s="4" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
@@ -8565,50 +8569,50 @@
         <v>8</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="L163" s="5"/>
       <c r="M163" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N163" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="O163" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="O163" s="4" t="s">
-        <v>789</v>
-      </c>
       <c r="P163" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="B164" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L164" s="5"/>
       <c r="M164" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="O164" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="N164" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="O164" s="4" t="s">
-        <v>793</v>
-      </c>
       <c r="P164" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
@@ -8616,50 +8620,50 @@
         <v>92</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L165" s="5"/>
       <c r="M165" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N165" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="O165" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="O165" s="4" t="s">
-        <v>798</v>
-      </c>
       <c r="P165" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="B166" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L166" s="5"/>
       <c r="M166" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N166" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="O166" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="O166" s="4" t="s">
-        <v>802</v>
-      </c>
       <c r="P166" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
@@ -8667,7 +8671,7 @@
         <v>207</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>129</v>
@@ -8691,122 +8695,122 @@
         <v>13</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L168" s="5"/>
       <c r="M168" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="O168" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="N168" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="O168" s="4" t="s">
-        <v>807</v>
-      </c>
       <c r="P168" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="B169" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L169" s="5"/>
       <c r="M169" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="O169" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="N169" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="O169" s="4" t="s">
-        <v>812</v>
-      </c>
       <c r="P169" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="B170" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L170" s="3"/>
       <c r="M170" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="O170" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="N170" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="O170" s="8" t="s">
-        <v>817</v>
-      </c>
       <c r="P170" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="B171" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L171" s="5"/>
       <c r="M171" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N171" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O171" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="O171" s="4" t="s">
-        <v>822</v>
-      </c>
       <c r="P171" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="B172" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L172" s="5"/>
       <c r="M172" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="O172" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="N172" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="O172" s="4" t="s">
-        <v>826</v>
-      </c>
       <c r="P172" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
@@ -8814,50 +8818,50 @@
         <v>241</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L173" s="5"/>
       <c r="M173" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="O173" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="P173" s="4" t="s">
         <v>832</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="O173" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="P173" s="4" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="B174" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L174" s="5"/>
       <c r="M174" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="O174" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="N174" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="O174" s="4" t="s">
-        <v>836</v>
-      </c>
       <c r="P174" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
@@ -8865,464 +8869,464 @@
         <v>241</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L175" s="5"/>
       <c r="M175" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="O175" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="N175" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="O175" s="4" t="s">
-        <v>841</v>
-      </c>
       <c r="P175" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="B176" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="L176" s="5"/>
       <c r="M176" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N176" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="O176" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="O176" s="4" t="s">
-        <v>846</v>
-      </c>
       <c r="P176" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="B177" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L177" s="5"/>
       <c r="M177" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="O177" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="P177" s="4" t="s">
         <v>851</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="O177" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="P177" s="4" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="L178" s="5"/>
       <c r="M178" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O178" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="P178" s="4" t="s">
         <v>857</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="O178" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="P178" s="4" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L179" s="5"/>
       <c r="M179" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="O179" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="N179" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="O179" s="4" t="s">
-        <v>862</v>
-      </c>
       <c r="P179" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L180" s="5"/>
       <c r="M180" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="O180" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="P180" s="4" t="s">
         <v>869</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="O180" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="P180" s="4" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="L181" s="5"/>
       <c r="M181" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="O181" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="N181" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="O181" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="P181" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L182" s="5"/>
       <c r="M182" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="O182" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="N182" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="O182" s="4" t="s">
-        <v>880</v>
-      </c>
       <c r="P182" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="B183" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L183" s="5"/>
       <c r="M183" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="O183" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="N183" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="O183" s="4" t="s">
-        <v>885</v>
-      </c>
       <c r="P183" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="B184" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L184" s="5"/>
       <c r="M184" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="O184" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="N184" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="O184" s="4" t="s">
-        <v>890</v>
-      </c>
       <c r="P184" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L185" s="5"/>
       <c r="M185" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="O185" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="N185" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="O185" s="4" t="s">
-        <v>895</v>
-      </c>
       <c r="P185" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="B186" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L186" s="5"/>
       <c r="M186" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="O186" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="N186" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="O186" s="4" t="s">
-        <v>900</v>
-      </c>
       <c r="P186" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="B187" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="L187" s="5"/>
       <c r="M187" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="O187" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="N187" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="O187" s="4" t="s">
-        <v>905</v>
-      </c>
       <c r="P187" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="B188" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="L188" s="5"/>
       <c r="M188" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="O188" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="P188" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="O188" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="P188" s="4" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="L189" s="5"/>
       <c r="M189" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N189" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="O189" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="O189" s="4" t="s">
-        <v>916</v>
-      </c>
       <c r="P189" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="L190" s="5"/>
       <c r="M190" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="O190" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="P190" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="O190" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="P190" s="4" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L191" s="5"/>
       <c r="M191" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="O191" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="N191" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="O191" s="4" t="s">
-        <v>926</v>
-      </c>
       <c r="P191" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="B192" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="L192" s="5"/>
       <c r="M192" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N192" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="O192" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="O192" s="4" t="s">
-        <v>931</v>
-      </c>
       <c r="P192" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="B193" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L193" s="5"/>
       <c r="M193" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="O193" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="N193" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="O193" s="4" t="s">
-        <v>935</v>
-      </c>
       <c r="P193" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
@@ -9330,50 +9334,50 @@
         <v>241</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L194" s="5"/>
       <c r="M194" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="O194" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="N194" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="O194" s="4" t="s">
-        <v>940</v>
-      </c>
       <c r="P194" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="B195" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L195" s="5"/>
       <c r="M195" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="O195" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="P195" s="4" t="s">
         <v>946</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="O195" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="P195" s="4" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
@@ -9381,101 +9385,101 @@
         <v>241</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="L196" s="5"/>
       <c r="M196" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="O196" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="N196" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="O196" s="4" t="s">
-        <v>951</v>
-      </c>
       <c r="P196" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="B197" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="L197" s="5"/>
       <c r="M197" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="O197" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="N197" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="O197" s="4" t="s">
-        <v>956</v>
-      </c>
       <c r="P197" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L198" s="5"/>
       <c r="M198" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="O198" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="N198" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="O198" s="4" t="s">
-        <v>961</v>
-      </c>
       <c r="P198" s="4" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="L199" s="5"/>
       <c r="M199" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="O199" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="N199" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="O199" s="4" t="s">
-        <v>966</v>
-      </c>
       <c r="P199" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
@@ -9483,122 +9487,122 @@
         <v>241</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L200" s="5"/>
       <c r="M200" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N200" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="O200" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="O200" s="4" t="s">
-        <v>971</v>
-      </c>
       <c r="P200" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="B201" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="L201" s="5"/>
       <c r="M201" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="O201" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="N201" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="O201" s="4" t="s">
-        <v>975</v>
-      </c>
       <c r="P201" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="B202" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="L202" s="5"/>
       <c r="M202" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="O202" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="N202" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="O202" s="4" t="s">
-        <v>980</v>
-      </c>
       <c r="P202" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="B203" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="L203" s="5"/>
       <c r="M203" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="N203" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="O203" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="O203" s="4" t="s">
-        <v>985</v>
-      </c>
       <c r="P203" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="L204" s="5"/>
       <c r="M204" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="O204" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="N204" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="O204" s="4" t="s">
-        <v>989</v>
-      </c>
       <c r="P204" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
@@ -9606,50 +9610,50 @@
         <v>13</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="L205" s="5"/>
       <c r="M205" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="O205" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="N205" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="O205" s="4" t="s">
-        <v>994</v>
-      </c>
       <c r="P205" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="B206" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L206" s="5"/>
       <c r="M206" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="O206" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="N206" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O206" s="4" t="s">
-        <v>999</v>
-      </c>
       <c r="P206" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
@@ -9657,98 +9661,98 @@
         <v>92</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="L207" s="5"/>
       <c r="M207" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="O207" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="N207" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="O207" s="4" t="s">
-        <v>1004</v>
-      </c>
       <c r="P207" s="4" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="B208" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="L208" s="5"/>
       <c r="M208" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="O208" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="N208" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="O208" s="4" t="s">
-        <v>1009</v>
-      </c>
       <c r="P208" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="B209" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="L209" s="5"/>
       <c r="M209" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O209" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="N209" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="O209" s="4" t="s">
-        <v>1014</v>
-      </c>
       <c r="P209" s="4" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="B210" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="L210" s="5"/>
       <c r="M210" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O210" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="N210" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="O210" s="4" t="s">
-        <v>1019</v>
-      </c>
       <c r="P210" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
@@ -9756,50 +9760,50 @@
         <v>13</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="L211" s="5"/>
       <c r="M211" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O211" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="N211" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="O211" s="4" t="s">
-        <v>1024</v>
-      </c>
       <c r="P211" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="B212" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="L212" s="5"/>
       <c r="M212" s="4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N212" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O212" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="O212" s="4" t="s">
-        <v>1029</v>
-      </c>
       <c r="P212" s="4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
@@ -9807,50 +9811,50 @@
         <v>8</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="L213" s="5"/>
       <c r="M213" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O213" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="N213" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="O213" s="4" t="s">
-        <v>1033</v>
-      </c>
       <c r="P213" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="B214" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="L214" s="5"/>
       <c r="M214" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O214" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="N214" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="O214" s="4" t="s">
-        <v>1038</v>
-      </c>
       <c r="P214" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
@@ -9858,123 +9862,123 @@
         <v>8</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="L215" s="5"/>
       <c r="M215" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O215" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="N215" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="O215" s="4" t="s">
-        <v>1043</v>
-      </c>
       <c r="P215" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="B216" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H216" s="9"/>
       <c r="L216" s="3"/>
       <c r="M216" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="O216" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P216" s="8" t="s">
         <v>1049</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="O216" s="8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P216" s="8" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="B217" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="L217" s="5"/>
       <c r="M217" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O217" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="N217" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="O217" s="4" t="s">
-        <v>1054</v>
-      </c>
       <c r="P217" s="4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="B218" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L218" s="5"/>
       <c r="M218" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O218" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="P218" s="4" t="s">
         <v>1060</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="O218" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="P218" s="4" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="B219" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="L219" s="5"/>
       <c r="M219" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O219" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P219" s="4" t="s">
         <v>1066</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="O219" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="P219" s="4" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
@@ -9982,410 +9986,410 @@
         <v>241</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="L220" s="5"/>
       <c r="M220" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O220" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="N220" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="O220" s="4" t="s">
-        <v>1071</v>
-      </c>
       <c r="P220" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="B221" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L221" s="5"/>
       <c r="M221" s="4" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="N221" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="O221" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="O221" s="4" t="s">
-        <v>1076</v>
-      </c>
       <c r="P221" s="4" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="B222" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="L222" s="5"/>
       <c r="M222" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O222" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="N222" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="O222" s="4" t="s">
-        <v>1080</v>
-      </c>
       <c r="P222" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="B223" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="L223" s="5"/>
       <c r="M223" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="N223" s="1" t="s">
-        <v>1082</v>
-      </c>
       <c r="O223" s="4" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="P223" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="B224" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="L224" s="5"/>
       <c r="M224" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="N224" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O224" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="O224" s="4" t="s">
-        <v>1087</v>
-      </c>
       <c r="P224" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="B225" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="L225" s="5"/>
       <c r="M225" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O225" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="P225" s="4" t="s">
         <v>1092</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="O225" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="P225" s="4" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="B226" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="L226" s="5"/>
       <c r="M226" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O226" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="N226" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="O226" s="4" t="s">
-        <v>1097</v>
-      </c>
       <c r="P226" s="4" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="B227" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L227" s="5"/>
       <c r="M227" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O227" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="N227" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="O227" s="4" t="s">
-        <v>1102</v>
-      </c>
       <c r="P227" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="B228" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="L228" s="5"/>
       <c r="M228" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="O228" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="N228" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="O228" s="4" t="s">
-        <v>1107</v>
-      </c>
       <c r="P228" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="B229" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="L229" s="5"/>
       <c r="M229" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="N229" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O229" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="O229" s="4" t="s">
-        <v>1112</v>
-      </c>
       <c r="P229" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="B230" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="L230" s="5"/>
       <c r="M230" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N230" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="O230" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="O230" s="4" t="s">
-        <v>1116</v>
-      </c>
       <c r="P230" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="B231" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="L231" s="5"/>
       <c r="M231" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O231" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="N231" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="O231" s="4" t="s">
-        <v>1120</v>
-      </c>
       <c r="P231" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="B232" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="L232" s="5"/>
       <c r="M232" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="O232" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="P232" s="4" t="s">
         <v>1126</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="O232" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="P232" s="4" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="B233" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="L233" s="5"/>
       <c r="M233" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O233" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P233" s="4" t="s">
         <v>1131</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="O233" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="P233" s="4" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="B234" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="L234" s="5"/>
       <c r="M234" s="4" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="N234" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O234" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="O234" s="4" t="s">
-        <v>1136</v>
-      </c>
       <c r="P234" s="4" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="B235" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="L235" s="3"/>
       <c r="M235" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O235" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P235" s="6" t="s">
         <v>1141</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="O235" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="P235" s="6" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="B236" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="L236" s="3"/>
       <c r="M236" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="O236" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="N236" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="O236" s="6" t="s">
-        <v>1146</v>
-      </c>
       <c r="P236" s="6" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
@@ -10393,845 +10397,845 @@
         <v>92</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="L237" s="5"/>
       <c r="M237" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O237" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="N237" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="O237" s="4" t="s">
-        <v>1151</v>
-      </c>
       <c r="P237" s="4" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="B238" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="L238" s="5"/>
       <c r="M238" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="O238" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="N238" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O238" s="4" t="s">
-        <v>1156</v>
-      </c>
       <c r="P238" s="4" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="B239" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="L239" s="5"/>
       <c r="M239" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O239" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="N239" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="O239" s="4" t="s">
-        <v>1161</v>
-      </c>
       <c r="P239" s="4" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="B240" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="L240" s="5"/>
       <c r="M240" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O240" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="N240" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="O240" s="4" t="s">
-        <v>1166</v>
-      </c>
       <c r="P240" s="4" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="B241" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="L241" s="5"/>
       <c r="M241" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="O241" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="N241" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="O241" s="4" t="s">
-        <v>1171</v>
-      </c>
       <c r="P241" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="B242" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="L242" s="3"/>
       <c r="M242" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O242" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="P242" s="8" t="s">
         <v>1177</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="O242" s="8" t="s">
-        <v>1179</v>
-      </c>
-      <c r="P242" s="8" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="B243" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="L243" s="5"/>
       <c r="M243" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O243" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="P243" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="O243" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="P243" s="4" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="B244" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="L244" s="3"/>
       <c r="M244" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="O244" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="P244" s="6" t="s">
         <v>1189</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O244" s="6" t="s">
-        <v>1191</v>
-      </c>
-      <c r="P244" s="6" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="B245" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="L245" s="5"/>
       <c r="M245" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O245" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P245" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="O245" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="P245" s="4" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="B246" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="L246" s="5"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="O246" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P246" s="4" t="s">
         <v>1200</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="O246" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="P246" s="4" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="B247" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="L247" s="5"/>
       <c r="M247" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O247" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P247" s="4" t="s">
         <v>1206</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="O247" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="P247" s="4" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="B248" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="L248" s="5"/>
       <c r="M248" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O248" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="P248" s="4" t="s">
         <v>1212</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="O248" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="P248" s="4" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="L249" s="5"/>
       <c r="M249" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O249" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="N249" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="O249" s="4" t="s">
-        <v>1216</v>
-      </c>
       <c r="P249" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="B250" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="L250" s="5"/>
       <c r="M250" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O250" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="P250" s="4" t="s">
         <v>1222</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="O250" s="4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="P250" s="4" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="B251" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="L251" s="5"/>
       <c r="M251" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O251" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="P251" s="4" t="s">
         <v>1227</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="O251" s="4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="P251" s="4" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="B252" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L252" s="5"/>
       <c r="M252" s="4" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="N252" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="O252" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="O252" s="4" t="s">
-        <v>1232</v>
-      </c>
       <c r="P252" s="4" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="B253" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="L253" s="3"/>
       <c r="M253" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O253" s="8" t="s">
         <v>1237</v>
       </c>
-      <c r="N253" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="O253" s="8" t="s">
-        <v>1236</v>
-      </c>
       <c r="P253" s="8" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="B254" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="L254" s="5"/>
       <c r="M254" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O254" s="4" t="s">
         <v>1242</v>
       </c>
-      <c r="N254" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="O254" s="4" t="s">
-        <v>1241</v>
-      </c>
       <c r="P254" s="4" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="B255" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="L255" s="5"/>
       <c r="M255" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="O255" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="N255" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="O255" s="4" t="s">
-        <v>1246</v>
-      </c>
       <c r="P255" s="4" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="B256" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="L256" s="5"/>
       <c r="M256" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="O256" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="N256" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="O256" s="4" t="s">
-        <v>1251</v>
-      </c>
       <c r="P256" s="4" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="B257" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="L257" s="5"/>
       <c r="M257" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O257" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="N257" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="O257" s="4" t="s">
-        <v>1256</v>
-      </c>
       <c r="P257" s="4" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="B258" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="L258" s="3"/>
       <c r="M258" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O258" s="8" t="s">
         <v>1262</v>
       </c>
-      <c r="N258" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="O258" s="8" t="s">
-        <v>1261</v>
-      </c>
       <c r="P258" s="8" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="B259" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="L259" s="5"/>
       <c r="M259" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O259" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="N259" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="O259" s="4" t="s">
-        <v>1266</v>
-      </c>
       <c r="P259" s="4" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="B260" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="L260" s="5"/>
       <c r="M260" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O260" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="N260" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="O260" s="4" t="s">
-        <v>1266</v>
-      </c>
       <c r="P260" s="4" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="B261" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="L261" s="5"/>
       <c r="M261" s="4" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="N261" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="O261" s="4" t="s">
         <v>1273</v>
       </c>
-      <c r="O261" s="4" t="s">
-        <v>1272</v>
-      </c>
       <c r="P261" s="4" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="B262" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="L262" s="5"/>
       <c r="M262" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="O262" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="N262" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="O262" s="4" t="s">
-        <v>1276</v>
-      </c>
       <c r="P262" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="B263" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="L263" s="3"/>
       <c r="M263" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="O263" s="6" t="s">
         <v>1282</v>
       </c>
-      <c r="N263" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="O263" s="6" t="s">
-        <v>1281</v>
-      </c>
       <c r="P263" s="6" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="B264" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="L264" s="3"/>
       <c r="M264" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O264" s="6" t="s">
         <v>1287</v>
       </c>
-      <c r="N264" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="O264" s="6" t="s">
-        <v>1286</v>
-      </c>
       <c r="P264" s="6" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="B265" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="L265" s="5"/>
       <c r="M265" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O265" s="4" t="s">
         <v>1292</v>
       </c>
-      <c r="N265" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="O265" s="4" t="s">
-        <v>1291</v>
-      </c>
       <c r="P265" s="4" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="B266" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="L266" s="5"/>
       <c r="M266" s="4" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="N266" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="O266" s="4" t="s">
         <v>1297</v>
       </c>
-      <c r="O266" s="4" t="s">
-        <v>1296</v>
-      </c>
       <c r="P266" s="4" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="B267" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="L267" s="5"/>
       <c r="M267" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="O267" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="N267" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="O267" s="4" t="s">
-        <v>1300</v>
-      </c>
       <c r="P267" s="4" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="B268" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="L268" s="5"/>
       <c r="M268" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O268" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="N268" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="O268" s="4" t="s">
-        <v>1305</v>
-      </c>
       <c r="P268" s="4" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="B269" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="L269" s="5"/>
       <c r="M269" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="O269" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="N269" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="O269" s="4" t="s">
-        <v>1310</v>
-      </c>
       <c r="P269" s="4" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="B270" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="L270" s="5"/>
       <c r="M270" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="O270" s="4" t="s">
         <v>1316</v>
       </c>
-      <c r="N270" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="O270" s="4" t="s">
-        <v>1315</v>
-      </c>
       <c r="P270" s="4" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="B271" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="L271" s="5"/>
       <c r="M271" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="O271" s="4" t="s">
         <v>1321</v>
       </c>
-      <c r="N271" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="O271" s="4" t="s">
-        <v>1320</v>
-      </c>
       <c r="P271" s="4" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
@@ -11239,26 +11243,26 @@
         <v>8</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="L272" s="5"/>
       <c r="M272" s="4" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="N272" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="O272" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="O272" s="4" t="s">
-        <v>1325</v>
-      </c>
       <c r="P272" s="4" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
@@ -11266,50 +11270,50 @@
         <v>8</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="L273" s="5"/>
       <c r="M273" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="O273" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="N273" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="O273" s="4" t="s">
-        <v>1329</v>
-      </c>
       <c r="P273" s="4" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="B274" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="L274" s="3"/>
       <c r="M274" s="4" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="N274" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O274" s="8" t="s">
         <v>1335</v>
       </c>
-      <c r="O274" s="8" t="s">
-        <v>1334</v>
-      </c>
       <c r="P274" s="8" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
@@ -11317,26 +11321,26 @@
         <v>13</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="L275" s="5"/>
       <c r="M275" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="O275" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="N275" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="O275" s="4" t="s">
-        <v>1338</v>
-      </c>
       <c r="P275" s="4" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
@@ -11344,410 +11348,410 @@
         <v>8</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="L276" s="5"/>
       <c r="M276" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="O276" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="N276" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="O276" s="4" t="s">
-        <v>1343</v>
-      </c>
       <c r="P276" s="4" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="B277" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="L277" s="5"/>
       <c r="M277" s="4" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="N277" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O277" s="4" t="s">
         <v>1349</v>
       </c>
-      <c r="O277" s="4" t="s">
-        <v>1348</v>
-      </c>
       <c r="P277" s="4" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="B278" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="L278" s="5"/>
       <c r="M278" s="4" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="N278" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O278" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="O278" s="4" t="s">
-        <v>1352</v>
-      </c>
       <c r="P278" s="4" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="B279" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="L279" s="5"/>
       <c r="M279" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O279" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="N279" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O279" s="4" t="s">
-        <v>1356</v>
-      </c>
       <c r="P279" s="4" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="B280" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="L280" s="3"/>
       <c r="M280" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="O280" s="6" t="s">
         <v>1362</v>
       </c>
-      <c r="N280" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="O280" s="6" t="s">
-        <v>1361</v>
-      </c>
       <c r="P280" s="6" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="B281" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="L281" s="5"/>
       <c r="M281" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="O281" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="N281" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="O281" s="4" t="s">
-        <v>1366</v>
-      </c>
       <c r="P281" s="4" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="B282" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="L282" s="3"/>
       <c r="M282" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O282" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="N282" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="O282" s="6" t="s">
-        <v>1371</v>
-      </c>
       <c r="P282" s="6" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="L283" s="5"/>
       <c r="M283" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="L284" s="5"/>
       <c r="M284" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="L285" s="5"/>
       <c r="M285" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="L286" s="5"/>
       <c r="M286" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="L287" s="5"/>
       <c r="M287" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="L288" s="5"/>
       <c r="M288" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="L289" s="5"/>
       <c r="M289" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="L290" s="5"/>
       <c r="M290" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="L291" s="5"/>
       <c r="M291" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="L292" s="5"/>
       <c r="M292" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="L293" s="5"/>
       <c r="M293" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="L294" s="5"/>
       <c r="M294" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="L295" s="5"/>
       <c r="M295" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="L296" s="5"/>
       <c r="M296" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="L297" s="5"/>
       <c r="M297" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="L298" s="5"/>
       <c r="M298" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="L299" s="5"/>
       <c r="M299" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="L300" s="5"/>
       <c r="M300" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="L301" s="5"/>
       <c r="M301" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="L302" s="5"/>
       <c r="M302" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="L303" s="5"/>
       <c r="M303" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="L304" s="5"/>
       <c r="M304" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="L305" s="5"/>
       <c r="M305" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="L306" s="5"/>
       <c r="M306" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="L307" s="5"/>
       <c r="M307" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="L308" s="5"/>
       <c r="M308" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="L309" s="5"/>
       <c r="M309" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="L310" s="5"/>
       <c r="M310" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="L311" s="5"/>
       <c r="M311" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="L312" s="5"/>
       <c r="M312" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="L313" s="5"/>
       <c r="M313" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="L314" s="5"/>
       <c r="M314" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="L315" s="5"/>
       <c r="M315" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="L316" s="5"/>
       <c r="M316" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="L317" s="5"/>
       <c r="M317" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="L318" s="5"/>
       <c r="M318" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="L319" s="5"/>
       <c r="M319" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="L320" s="5"/>
       <c r="M320" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="L321" s="5"/>
       <c r="M321" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="L322" s="5"/>
       <c r="M322" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
